--- a/data/Live Code/Testing RRR 2 20-15 EMA/Summary RRR 2.xlsx
+++ b/data/Live Code/Testing RRR 2 20-15 EMA/Summary RRR 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\data\RRR 2 20-15 EMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\data\Live Code\Testing RRR 2 20-15 EMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67935837-DF5B-4B2A-95B3-5A4A42381850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4F6BEF-24D1-4A8A-AA80-095E9C2107D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>PAIRS</t>
   </si>
   <si>
-    <t>NET</t>
-  </si>
-  <si>
     <t>AUDCAD</t>
   </si>
   <si>
@@ -91,6 +88,54 @@
   </si>
   <si>
     <t>USDJPY</t>
+  </si>
+  <si>
+    <t>BACKTESTED FOR CANDLES:</t>
+  </si>
+  <si>
+    <t>ACCOUNT SIZE</t>
+  </si>
+  <si>
+    <t>10K $</t>
+  </si>
+  <si>
+    <t>RPT</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>TRAILING</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>2 R</t>
+  </si>
+  <si>
+    <t>TIMEFRAME</t>
+  </si>
+  <si>
+    <t>15 MINS</t>
+  </si>
+  <si>
+    <t>INDICATORS USED</t>
+  </si>
+  <si>
+    <t>24K OR AROUND 1 YEAR</t>
+  </si>
+  <si>
+    <t>EMAs: 20, 200, 8</t>
+  </si>
+  <si>
+    <t>RSI: 21 DAYS</t>
+  </si>
+  <si>
+    <t>KELTNER'S CHANNEL: 20 EMA, 2.25 ATR</t>
+  </si>
+  <si>
+    <t>RETURNS</t>
   </si>
 </sst>
 </file>
@@ -134,9 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,185 +466,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>4421</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>3790</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3062</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1494</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>193</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>-401</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>-4430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>-4049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>-2907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B9">
+        <v>-835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>-2481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>-2342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>-2301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>-2142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>-1640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
       <c r="B10">
-        <v>-1325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-1011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-980</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>-835</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>-521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-2142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>-401</v>
+        <v>-2301</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>193</v>
+        <v>-2342</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>1494</v>
+        <v>-2481</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>3062</v>
+        <v>-2907</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>3790</v>
+        <v>-4049</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>4421</v>
+        <v>-4430</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
-    <sortCondition ref="B1:B21"/>
+    <sortCondition descending="1" ref="B1:B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
